--- a/download/partdb.xlsx
+++ b/download/partdb.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="0" windowWidth="13305" windowHeight="8460" activeTab="2"/>
+    <workbookView xWindow="11655" yWindow="0" windowWidth="13305" windowHeight="8460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="igem_team" sheetId="1" r:id="rId1"/>
     <sheet name="igem_part" sheetId="3" r:id="rId2"/>
-    <sheet name="igem_obs" sheetId="2" r:id="rId3"/>
-    <sheet name="igem_device" sheetId="5" r:id="rId4"/>
+    <sheet name="igem_device" sheetId="5" r:id="rId3"/>
+    <sheet name="igem_obs" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -620,7 +620,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -705,7 +705,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1083,10 +1083,70 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1411,62 +1471,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/download/partdb.xlsx
+++ b/download/partdb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11655" yWindow="0" windowWidth="13305" windowHeight="8460" activeTab="3"/>
+    <workbookView xWindow="13320" yWindow="0" windowWidth="13305" windowHeight="8460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="igem_team" sheetId="1" r:id="rId1"/>
@@ -333,8 +333,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -620,7 +623,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -643,7 +646,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -660,7 +663,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -677,7 +680,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -704,9 +707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -737,7 +738,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -763,7 +764,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -789,7 +790,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -815,7 +816,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -841,7 +842,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -867,7 +868,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -893,7 +894,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -919,7 +920,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -945,7 +946,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -971,7 +972,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -997,7 +998,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -1023,7 +1024,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -1049,7 +1050,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -1086,7 +1087,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1103,7 +1104,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1114,7 +1115,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1125,7 +1126,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1145,9 +1146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1187,7 +1186,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1222,7 +1221,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1257,7 +1256,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1292,7 +1291,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1327,7 +1326,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1362,7 +1361,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1397,7 +1396,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1432,7 +1431,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">

--- a/download/partdb.xlsx
+++ b/download/partdb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="0" windowWidth="13305" windowHeight="8460" activeTab="3"/>
+    <workbookView xWindow="14985" yWindow="0" windowWidth="13305" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="igem_team" sheetId="1" r:id="rId1"/>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -655,7 +655,7 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>2018</v>
       </c>
       <c r="E2" t="s">
@@ -672,7 +672,7 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>2019</v>
       </c>
       <c r="E3" t="s">
@@ -689,7 +689,7 @@
       <c r="C4" t="s">
         <v>65</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>2020</v>
       </c>
       <c r="E4" t="s">
@@ -707,7 +707,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -753,10 +755,10 @@
       <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>1</v>
       </c>
       <c r="H2" t="s">
@@ -779,10 +781,10 @@
       <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" t="s">
@@ -805,10 +807,10 @@
       <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" t="s">
@@ -831,10 +833,10 @@
       <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" t="s">
@@ -857,10 +859,10 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
         <v>2</v>
       </c>
       <c r="H6" t="s">
@@ -883,10 +885,10 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" t="s">
@@ -909,10 +911,10 @@
       <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
         <v>2</v>
       </c>
       <c r="H8" t="s">
@@ -935,10 +937,10 @@
       <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
         <v>2</v>
       </c>
       <c r="H9" t="s">
@@ -961,10 +963,10 @@
       <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
         <v>2</v>
       </c>
       <c r="H10" t="s">
@@ -987,10 +989,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>3</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>3</v>
       </c>
       <c r="H11" t="s">
@@ -1013,10 +1015,10 @@
       <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>3</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>3</v>
       </c>
       <c r="H12" t="s">
@@ -1039,10 +1041,10 @@
       <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>3</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>3</v>
       </c>
       <c r="H13" t="s">
@@ -1065,10 +1067,10 @@
       <c r="E14" t="s">
         <v>20</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>3</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>3</v>
       </c>
       <c r="H14" t="s">
@@ -1087,7 +1089,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1146,7 +1148,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1213,7 +1217,7 @@
       <c r="I2">
         <v>37</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>1</v>
       </c>
       <c r="K2" t="s">
@@ -1248,7 +1252,7 @@
       <c r="I3">
         <v>25</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>2</v>
       </c>
       <c r="K3" t="s">
@@ -1283,7 +1287,7 @@
       <c r="I4">
         <v>30</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>2</v>
       </c>
       <c r="K4" t="s">
@@ -1318,7 +1322,7 @@
       <c r="I5">
         <v>34</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>2</v>
       </c>
       <c r="K5" t="s">
@@ -1353,7 +1357,7 @@
       <c r="I6">
         <v>37</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>2</v>
       </c>
       <c r="K6" t="s">
@@ -1388,7 +1392,7 @@
       <c r="I7">
         <v>40</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>2</v>
       </c>
       <c r="K7" t="s">
@@ -1423,7 +1427,7 @@
       <c r="I8">
         <v>42</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>2</v>
       </c>
       <c r="K8" t="s">
@@ -1458,7 +1462,7 @@
       <c r="I9" t="s">
         <v>67</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>3</v>
       </c>
       <c r="K9" t="s">
